--- a/data/pca/factorExposure/factorExposure_2015-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01742595285446496</v>
+        <v>-0.01406228339497068</v>
       </c>
       <c r="C2">
-        <v>0.03098819930913548</v>
+        <v>0.0356421711231401</v>
       </c>
       <c r="D2">
-        <v>0.09326538134833938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1270747907701768</v>
+      </c>
+      <c r="E2">
+        <v>0.0731378888429122</v>
+      </c>
+      <c r="F2">
+        <v>-0.02355906934816435</v>
+      </c>
+      <c r="G2">
+        <v>-0.07723077953945676</v>
+      </c>
+      <c r="H2">
+        <v>0.07723413246524012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01835159938288901</v>
+        <v>-0.01059841335948943</v>
       </c>
       <c r="C3">
-        <v>0.05580675547622103</v>
+        <v>0.04149728189104328</v>
       </c>
       <c r="D3">
-        <v>0.09375497075843832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05754241634626557</v>
+      </c>
+      <c r="E3">
+        <v>0.04061050769345397</v>
+      </c>
+      <c r="F3">
+        <v>-0.04754010166278556</v>
+      </c>
+      <c r="G3">
+        <v>-0.09985807081908468</v>
+      </c>
+      <c r="H3">
+        <v>0.01212173018926851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05562008186827253</v>
+        <v>-0.05302248782956333</v>
       </c>
       <c r="C4">
-        <v>0.04387900578707548</v>
+        <v>0.06665401114858471</v>
       </c>
       <c r="D4">
-        <v>0.1184582688052384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1412729593516834</v>
+      </c>
+      <c r="E4">
+        <v>0.05425106683640647</v>
+      </c>
+      <c r="F4">
+        <v>-0.02183496635368047</v>
+      </c>
+      <c r="G4">
+        <v>0.03822521070608052</v>
+      </c>
+      <c r="H4">
+        <v>-0.02268611174798151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04249366041639294</v>
+        <v>-0.0399673638791268</v>
       </c>
       <c r="C6">
-        <v>0.01423650300947395</v>
+        <v>0.02848777466201546</v>
       </c>
       <c r="D6">
-        <v>0.135177215733175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1380980404336817</v>
+      </c>
+      <c r="E6">
+        <v>0.03097284336813901</v>
+      </c>
+      <c r="F6">
+        <v>-0.01531287036145247</v>
+      </c>
+      <c r="G6">
+        <v>-0.01054530414666398</v>
+      </c>
+      <c r="H6">
+        <v>0.008105899322815694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02040239874448957</v>
+        <v>-0.01388885589971189</v>
       </c>
       <c r="C7">
-        <v>0.01870933794200298</v>
+        <v>0.03191742591686559</v>
       </c>
       <c r="D7">
-        <v>0.0980957321447244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09564358972916003</v>
+      </c>
+      <c r="E7">
+        <v>0.03172505458404046</v>
+      </c>
+      <c r="F7">
+        <v>-0.02309698840478706</v>
+      </c>
+      <c r="G7">
+        <v>-0.007502515142518317</v>
+      </c>
+      <c r="H7">
+        <v>0.1091411576735467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01091614781239507</v>
+        <v>-0.007135099149387585</v>
       </c>
       <c r="C8">
-        <v>0.02769165896224214</v>
+        <v>0.03763740339237025</v>
       </c>
       <c r="D8">
-        <v>0.05841326737948814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07690869424949903</v>
+      </c>
+      <c r="E8">
+        <v>0.03651560751117436</v>
+      </c>
+      <c r="F8">
+        <v>-0.04325118920026227</v>
+      </c>
+      <c r="G8">
+        <v>-0.02032496177692499</v>
+      </c>
+      <c r="H8">
+        <v>0.03577557804786006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04546833243403469</v>
+        <v>-0.04201616054412994</v>
       </c>
       <c r="C9">
-        <v>0.04346820834225829</v>
+        <v>0.06259201223043107</v>
       </c>
       <c r="D9">
-        <v>0.1083349054261718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1202262707851178</v>
+      </c>
+      <c r="E9">
+        <v>0.03969510997011451</v>
+      </c>
+      <c r="F9">
+        <v>-0.003048272991072949</v>
+      </c>
+      <c r="G9">
+        <v>0.02641604633435398</v>
+      </c>
+      <c r="H9">
+        <v>0.006158828349397428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09655481627832839</v>
+        <v>-0.1418194343948262</v>
       </c>
       <c r="C10">
-        <v>-0.1893159031772975</v>
+        <v>-0.1887901854680934</v>
       </c>
       <c r="D10">
-        <v>-0.003956078319718761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0047772218669283</v>
+      </c>
+      <c r="E10">
+        <v>0.04310226319741686</v>
+      </c>
+      <c r="F10">
+        <v>-0.02500449305201866</v>
+      </c>
+      <c r="G10">
+        <v>0.03202411663461862</v>
+      </c>
+      <c r="H10">
+        <v>0.0003253721342770785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03360327552984368</v>
+        <v>-0.02826527016427805</v>
       </c>
       <c r="C11">
-        <v>0.03806253258604819</v>
+        <v>0.04521838019630075</v>
       </c>
       <c r="D11">
-        <v>0.05721406534723571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05808816103472734</v>
+      </c>
+      <c r="E11">
+        <v>-0.004110836835788241</v>
+      </c>
+      <c r="F11">
+        <v>-0.0004165106921969377</v>
+      </c>
+      <c r="G11">
+        <v>-0.005041369797139742</v>
+      </c>
+      <c r="H11">
+        <v>0.04630271639473395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04020909321205114</v>
+        <v>-0.03351110056606799</v>
       </c>
       <c r="C12">
-        <v>0.03892990557471021</v>
+        <v>0.04663438612581215</v>
       </c>
       <c r="D12">
-        <v>0.06078299213019847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05815783477602825</v>
+      </c>
+      <c r="E12">
+        <v>0.002333238813158212</v>
+      </c>
+      <c r="F12">
+        <v>0.007827320477761518</v>
+      </c>
+      <c r="G12">
+        <v>-0.005825075854975795</v>
+      </c>
+      <c r="H12">
+        <v>0.06017873534018621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01838407326825549</v>
+        <v>-0.01800472358355812</v>
       </c>
       <c r="C13">
-        <v>0.03055632272886974</v>
+        <v>0.03869471203054527</v>
       </c>
       <c r="D13">
-        <v>0.123207921318641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1475489431422995</v>
+      </c>
+      <c r="E13">
+        <v>0.04990892079100209</v>
+      </c>
+      <c r="F13">
+        <v>-0.03841834182914185</v>
+      </c>
+      <c r="G13">
+        <v>-0.01774937046023381</v>
+      </c>
+      <c r="H13">
+        <v>0.09340558348172162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008475454319767066</v>
+        <v>-0.00809868436063664</v>
       </c>
       <c r="C14">
-        <v>0.01500279889215307</v>
+        <v>0.02475182248308609</v>
       </c>
       <c r="D14">
-        <v>0.08225914688081093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09256085773630075</v>
+      </c>
+      <c r="E14">
+        <v>0.03895124068748479</v>
+      </c>
+      <c r="F14">
+        <v>0.002222264322869282</v>
+      </c>
+      <c r="G14">
+        <v>-0.02076960049829203</v>
+      </c>
+      <c r="H14">
+        <v>0.09342527099040063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002648549102365433</v>
+        <v>-0.001171489573040068</v>
       </c>
       <c r="C15">
-        <v>0.002548927389823032</v>
+        <v>0.01167344656807825</v>
       </c>
       <c r="D15">
-        <v>0.003034307905628852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03449335840227147</v>
+      </c>
+      <c r="E15">
+        <v>0.008580177786775932</v>
+      </c>
+      <c r="F15">
+        <v>0.001886586041557676</v>
+      </c>
+      <c r="G15">
+        <v>-0.01035842624456084</v>
+      </c>
+      <c r="H15">
+        <v>0.006058873030045955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03372438746623786</v>
+        <v>-0.02914391853880615</v>
       </c>
       <c r="C16">
-        <v>0.04044690846719825</v>
+        <v>0.04520535334522081</v>
       </c>
       <c r="D16">
-        <v>0.06688961839588428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0640398096193306</v>
+      </c>
+      <c r="E16">
+        <v>0.008332860851009352</v>
+      </c>
+      <c r="F16">
+        <v>0.008363140138730846</v>
+      </c>
+      <c r="G16">
+        <v>-0.00541755068836793</v>
+      </c>
+      <c r="H16">
+        <v>0.05696725808740526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01026601263433985</v>
+        <v>-0.00689216978184308</v>
       </c>
       <c r="C19">
-        <v>0.02592592343413569</v>
+        <v>0.02210452452650801</v>
       </c>
       <c r="D19">
-        <v>0.1541240339617815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1194181005022459</v>
+      </c>
+      <c r="E19">
+        <v>0.06477418824825729</v>
+      </c>
+      <c r="F19">
+        <v>0.002806380752254905</v>
+      </c>
+      <c r="G19">
+        <v>-0.0279641891825787</v>
+      </c>
+      <c r="H19">
+        <v>0.06236702944370393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0166424140502758</v>
+        <v>-0.01535801508680151</v>
       </c>
       <c r="C20">
-        <v>0.02630217089292834</v>
+        <v>0.03407450572708596</v>
       </c>
       <c r="D20">
-        <v>0.08430955334496822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1004030810197577</v>
+      </c>
+      <c r="E20">
+        <v>0.05303373010457278</v>
+      </c>
+      <c r="F20">
+        <v>0.002675270661901477</v>
+      </c>
+      <c r="G20">
+        <v>-0.006449218637086933</v>
+      </c>
+      <c r="H20">
+        <v>0.05343246337604189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01419368261834517</v>
+        <v>-0.01304589198525908</v>
       </c>
       <c r="C21">
-        <v>0.03140260899166791</v>
+        <v>0.03980879671378364</v>
       </c>
       <c r="D21">
-        <v>0.1241881604694934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1410771424563524</v>
+      </c>
+      <c r="E21">
+        <v>0.09001065136638954</v>
+      </c>
+      <c r="F21">
+        <v>-0.0052530906323524</v>
+      </c>
+      <c r="G21">
+        <v>0.01363836352893413</v>
+      </c>
+      <c r="H21">
+        <v>0.1162638241756702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007250509714611552</v>
+        <v>-0.005702065451877748</v>
       </c>
       <c r="C22">
-        <v>0.02811453960047148</v>
+        <v>0.04178241414093246</v>
       </c>
       <c r="D22">
-        <v>0.09598925032174307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1507736262041755</v>
+      </c>
+      <c r="E22">
+        <v>0.03205046219808826</v>
+      </c>
+      <c r="F22">
+        <v>-0.08786017344221213</v>
+      </c>
+      <c r="G22">
+        <v>-0.07322257222367619</v>
+      </c>
+      <c r="H22">
+        <v>-0.08092471369455462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007374548311378233</v>
+        <v>-0.005812454598022094</v>
       </c>
       <c r="C23">
-        <v>0.02804321841801407</v>
+        <v>0.04222887865906789</v>
       </c>
       <c r="D23">
-        <v>0.09526301646894536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1501800269404331</v>
+      </c>
+      <c r="E23">
+        <v>0.03232016335884838</v>
+      </c>
+      <c r="F23">
+        <v>-0.08784768496058377</v>
+      </c>
+      <c r="G23">
+        <v>-0.07229137047444893</v>
+      </c>
+      <c r="H23">
+        <v>-0.08099078286921949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03687844609980811</v>
+        <v>-0.03047899611126069</v>
       </c>
       <c r="C24">
-        <v>0.04927229252350329</v>
+        <v>0.05667680560850041</v>
       </c>
       <c r="D24">
-        <v>0.06563086055276128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06601980950756227</v>
+      </c>
+      <c r="E24">
+        <v>0.01318157532268867</v>
+      </c>
+      <c r="F24">
+        <v>0.005219577784433097</v>
+      </c>
+      <c r="G24">
+        <v>0.000961070059947431</v>
+      </c>
+      <c r="H24">
+        <v>0.06866833761452734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04039439769167183</v>
+        <v>-0.03479966380260347</v>
       </c>
       <c r="C25">
-        <v>0.0482068990083872</v>
+        <v>0.05420323967402518</v>
       </c>
       <c r="D25">
-        <v>0.06555328856997747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06335006711455492</v>
+      </c>
+      <c r="E25">
+        <v>0.01424604548963323</v>
+      </c>
+      <c r="F25">
+        <v>6.084778225907011e-05</v>
+      </c>
+      <c r="G25">
+        <v>0.001482551360798738</v>
+      </c>
+      <c r="H25">
+        <v>0.05583445600133251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02059783490775709</v>
+        <v>-0.01899678179410652</v>
       </c>
       <c r="C26">
-        <v>0.00715032755147488</v>
+        <v>0.01847830780241044</v>
       </c>
       <c r="D26">
-        <v>0.05185214988585672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06407521403324044</v>
+      </c>
+      <c r="E26">
+        <v>0.02803469604934566</v>
+      </c>
+      <c r="F26">
+        <v>-0.00479738584772936</v>
+      </c>
+      <c r="G26">
+        <v>-0.01243818763910108</v>
+      </c>
+      <c r="H26">
+        <v>0.05791151821017984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.145444945812297</v>
+        <v>-0.201395379275173</v>
       </c>
       <c r="C28">
-        <v>-0.2693706916391068</v>
+        <v>-0.2517530608209458</v>
       </c>
       <c r="D28">
-        <v>-0.03837067560748392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01316997406643419</v>
+      </c>
+      <c r="E28">
+        <v>0.07200222976390527</v>
+      </c>
+      <c r="F28">
+        <v>-0.00618393090161377</v>
+      </c>
+      <c r="G28">
+        <v>0.06152886045195955</v>
+      </c>
+      <c r="H28">
+        <v>0.01903937265881998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005039539483251947</v>
+        <v>-0.005593540515784562</v>
       </c>
       <c r="C29">
-        <v>0.01701104242832667</v>
+        <v>0.02337101623509096</v>
       </c>
       <c r="D29">
-        <v>0.06762819438260359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08826057970054411</v>
+      </c>
+      <c r="E29">
+        <v>0.03472684124352271</v>
+      </c>
+      <c r="F29">
+        <v>-0.01272071292462957</v>
+      </c>
+      <c r="G29">
+        <v>-0.002896435429157707</v>
+      </c>
+      <c r="H29">
+        <v>0.09877978655404104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03764990115180634</v>
+        <v>-0.04089133671639188</v>
       </c>
       <c r="C30">
-        <v>0.03587622952407019</v>
+        <v>0.06144349558925074</v>
       </c>
       <c r="D30">
-        <v>0.1682601047545829</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1792908014829036</v>
+      </c>
+      <c r="E30">
+        <v>0.01908277861965764</v>
+      </c>
+      <c r="F30">
+        <v>-0.01019283350607532</v>
+      </c>
+      <c r="G30">
+        <v>-0.02578419134478622</v>
+      </c>
+      <c r="H30">
+        <v>-0.008175922892934513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06877919763117746</v>
+        <v>-0.05488305252679904</v>
       </c>
       <c r="C31">
-        <v>0.04982671633619873</v>
+        <v>0.0741360438515383</v>
       </c>
       <c r="D31">
-        <v>0.06440635337640388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05250116072073409</v>
+      </c>
+      <c r="E31">
+        <v>0.03201437937004564</v>
+      </c>
+      <c r="F31">
+        <v>-0.03187888785187748</v>
+      </c>
+      <c r="G31">
+        <v>0.01512377352857356</v>
+      </c>
+      <c r="H31">
+        <v>0.04681761523325149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00485959862009305</v>
+        <v>-0.01109920508579071</v>
       </c>
       <c r="C32">
-        <v>0.02007232466141808</v>
+        <v>0.01859182979924642</v>
       </c>
       <c r="D32">
-        <v>0.06146870036619032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1076908206511059</v>
+      </c>
+      <c r="E32">
+        <v>0.09118257906170181</v>
+      </c>
+      <c r="F32">
+        <v>-0.01116874717229559</v>
+      </c>
+      <c r="G32">
+        <v>0.01556774002313774</v>
+      </c>
+      <c r="H32">
+        <v>0.09574741231725374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02452169595138525</v>
+        <v>-0.02276180919962026</v>
       </c>
       <c r="C33">
-        <v>0.03026615366127475</v>
+        <v>0.04412156562549954</v>
       </c>
       <c r="D33">
-        <v>0.1300079033791295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1329267212804154</v>
+      </c>
+      <c r="E33">
+        <v>0.04266545776364344</v>
+      </c>
+      <c r="F33">
+        <v>-0.01718316272430687</v>
+      </c>
+      <c r="G33">
+        <v>-0.009540721660436773</v>
+      </c>
+      <c r="H33">
+        <v>0.06178187058920519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03505181741901341</v>
+        <v>-0.02684351876543369</v>
       </c>
       <c r="C34">
-        <v>0.06126234772390578</v>
+        <v>0.06156926434145989</v>
       </c>
       <c r="D34">
-        <v>0.06832125168404073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05591748954055682</v>
+      </c>
+      <c r="E34">
+        <v>-0.002830966508714036</v>
+      </c>
+      <c r="F34">
+        <v>0.01008408282671401</v>
+      </c>
+      <c r="G34">
+        <v>-0.00814270299544287</v>
+      </c>
+      <c r="H34">
+        <v>0.0754326120498921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.000743412852563861</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001064980110248871</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005413438209377024</v>
+      </c>
+      <c r="E35">
+        <v>0.001279961074747731</v>
+      </c>
+      <c r="F35">
+        <v>-9.513315144300087e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001895909756632112</v>
+      </c>
+      <c r="H35">
+        <v>0.001827373420134163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02138442114946404</v>
+        <v>-0.01966809018561965</v>
       </c>
       <c r="C36">
-        <v>0.003750077590803182</v>
+        <v>0.01480379907948876</v>
       </c>
       <c r="D36">
-        <v>0.06887119546093276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07678271362752723</v>
+      </c>
+      <c r="E36">
+        <v>0.03355886283034139</v>
+      </c>
+      <c r="F36">
+        <v>-0.002930828505628523</v>
+      </c>
+      <c r="G36">
+        <v>0.003148836345583638</v>
+      </c>
+      <c r="H36">
+        <v>0.05228527938137374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02122405245539104</v>
+        <v>-0.02052180036430653</v>
       </c>
       <c r="C38">
-        <v>0.01484531577375688</v>
+        <v>0.02030112592313188</v>
       </c>
       <c r="D38">
-        <v>0.05391386187662876</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06071746440275241</v>
+      </c>
+      <c r="E38">
+        <v>0.03672835647522332</v>
+      </c>
+      <c r="F38">
+        <v>0.008298653206270297</v>
+      </c>
+      <c r="G38">
+        <v>-0.04072656950041619</v>
+      </c>
+      <c r="H38">
+        <v>0.03529225786806905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03941442851253528</v>
+        <v>-0.03504029034428133</v>
       </c>
       <c r="C39">
-        <v>0.04948717647123203</v>
+        <v>0.06710108079235236</v>
       </c>
       <c r="D39">
-        <v>0.08889781533014106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036906400674594</v>
+      </c>
+      <c r="E39">
+        <v>0.008718504691071594</v>
+      </c>
+      <c r="F39">
+        <v>0.02702714093253162</v>
+      </c>
+      <c r="G39">
+        <v>-0.01040208321655753</v>
+      </c>
+      <c r="H39">
+        <v>0.08121479875445818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01908308600237577</v>
+        <v>-0.01277404156216487</v>
       </c>
       <c r="C40">
-        <v>0.04727997201798095</v>
+        <v>0.04161343786750306</v>
       </c>
       <c r="D40">
-        <v>0.07128045382362781</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08051627152864969</v>
+      </c>
+      <c r="E40">
+        <v>0.06286266537186416</v>
+      </c>
+      <c r="F40">
+        <v>-0.07157024282997493</v>
+      </c>
+      <c r="G40">
+        <v>-0.07670174905179035</v>
+      </c>
+      <c r="H40">
+        <v>0.1519894503477296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02488293996396343</v>
+        <v>-0.02378895088262012</v>
       </c>
       <c r="C41">
-        <v>-0.001632108267574186</v>
+        <v>0.008328826738612925</v>
       </c>
       <c r="D41">
-        <v>0.06471565731635411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05610675119086984</v>
+      </c>
+      <c r="E41">
+        <v>0.0535137023275972</v>
+      </c>
+      <c r="F41">
+        <v>-0.003070465751501833</v>
+      </c>
+      <c r="G41">
+        <v>-0.01858389811631622</v>
+      </c>
+      <c r="H41">
+        <v>0.0424767303402795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03009332374778093</v>
+        <v>-0.02368337385631634</v>
       </c>
       <c r="C43">
-        <v>0.008185291812169404</v>
+        <v>0.01859967753461513</v>
       </c>
       <c r="D43">
-        <v>0.1007633639349541</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08333449067560693</v>
+      </c>
+      <c r="E43">
+        <v>0.03294331856153664</v>
+      </c>
+      <c r="F43">
+        <v>-0.005623713514605126</v>
+      </c>
+      <c r="G43">
+        <v>-0.0197270503769208</v>
+      </c>
+      <c r="H43">
+        <v>0.06624402806058353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01578437810440074</v>
+        <v>-0.01670539771770237</v>
       </c>
       <c r="C44">
-        <v>0.04565513633698143</v>
+        <v>0.04348557504458568</v>
       </c>
       <c r="D44">
-        <v>0.07462169541075975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09815657453453226</v>
+      </c>
+      <c r="E44">
+        <v>0.06653672117970974</v>
+      </c>
+      <c r="F44">
+        <v>-0.01118644451086198</v>
+      </c>
+      <c r="G44">
+        <v>-0.01249773945142445</v>
+      </c>
+      <c r="H44">
+        <v>0.07024951204521696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02031714169378635</v>
+        <v>-0.01476060091712023</v>
       </c>
       <c r="C46">
-        <v>0.01564509965279378</v>
+        <v>0.03098598882448067</v>
       </c>
       <c r="D46">
-        <v>0.0719723024042493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08758832184028681</v>
+      </c>
+      <c r="E46">
+        <v>0.03943768057660966</v>
+      </c>
+      <c r="F46">
+        <v>0.01353841237250749</v>
+      </c>
+      <c r="G46">
+        <v>0.005036866521057565</v>
+      </c>
+      <c r="H46">
+        <v>0.1065891641532024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09754574512777023</v>
+        <v>-0.08162995299605198</v>
       </c>
       <c r="C47">
-        <v>0.0675544649040561</v>
+        <v>0.09004262096214505</v>
       </c>
       <c r="D47">
-        <v>0.04486910426853929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03326365583807656</v>
+      </c>
+      <c r="E47">
+        <v>0.03819779661157247</v>
+      </c>
+      <c r="F47">
+        <v>-0.02159008342848091</v>
+      </c>
+      <c r="G47">
+        <v>0.03783297815300037</v>
+      </c>
+      <c r="H47">
+        <v>0.03051752800475859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01556964379921588</v>
+        <v>-0.01653287955502994</v>
       </c>
       <c r="C48">
-        <v>0.01483632049171954</v>
+        <v>0.0199760553882288</v>
       </c>
       <c r="D48">
-        <v>0.06091771524999318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07309495586470864</v>
+      </c>
+      <c r="E48">
+        <v>0.05181000704177575</v>
+      </c>
+      <c r="F48">
+        <v>0.00108921883678459</v>
+      </c>
+      <c r="G48">
+        <v>-0.0001072248490282257</v>
+      </c>
+      <c r="H48">
+        <v>0.05849459167957893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06236599116541642</v>
+        <v>-0.05259738177418882</v>
       </c>
       <c r="C50">
-        <v>0.05155888563652068</v>
+        <v>0.06738474973992628</v>
       </c>
       <c r="D50">
-        <v>0.06440329032147675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05618657326683922</v>
+      </c>
+      <c r="E50">
+        <v>0.04360737470854577</v>
+      </c>
+      <c r="F50">
+        <v>-0.03928225841997102</v>
+      </c>
+      <c r="G50">
+        <v>-0.01933579854050005</v>
+      </c>
+      <c r="H50">
+        <v>0.04363393737469846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01084354966808667</v>
+        <v>-0.01057438398979896</v>
       </c>
       <c r="C51">
-        <v>0.01664828942753833</v>
+        <v>0.02123945258633958</v>
       </c>
       <c r="D51">
-        <v>0.08049254107462681</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09037205445265407</v>
+      </c>
+      <c r="E51">
+        <v>0.01370778705574161</v>
+      </c>
+      <c r="F51">
+        <v>-0.003289641209024606</v>
+      </c>
+      <c r="G51">
+        <v>-0.02132788618352444</v>
+      </c>
+      <c r="H51">
+        <v>0.05915931727540629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09035091643057064</v>
+        <v>-0.08597454391768684</v>
       </c>
       <c r="C53">
-        <v>0.08754150658273206</v>
+        <v>0.1023995900786148</v>
       </c>
       <c r="D53">
-        <v>0.004829505541810635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01298557768635591</v>
+      </c>
+      <c r="E53">
+        <v>0.1095581767421923</v>
+      </c>
+      <c r="F53">
+        <v>-0.04220662887447696</v>
+      </c>
+      <c r="G53">
+        <v>0.08349409023007491</v>
+      </c>
+      <c r="H53">
+        <v>0.014363718578183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02986538522038445</v>
+        <v>-0.02604354458207215</v>
       </c>
       <c r="C54">
-        <v>0.03020969380266293</v>
+        <v>0.03672755739408654</v>
       </c>
       <c r="D54">
-        <v>0.0905842379543772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08814470457975213</v>
+      </c>
+      <c r="E54">
+        <v>0.04203276520800394</v>
+      </c>
+      <c r="F54">
+        <v>0.01109957919293235</v>
+      </c>
+      <c r="G54">
+        <v>-0.03020460736850366</v>
+      </c>
+      <c r="H54">
+        <v>0.1093148897938096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0940156214497478</v>
+        <v>-0.08432879354835093</v>
       </c>
       <c r="C55">
-        <v>0.05858192631923124</v>
+        <v>0.08116849481508399</v>
       </c>
       <c r="D55">
-        <v>-0.015591564425452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008283631577019673</v>
+      </c>
+      <c r="E55">
+        <v>0.05969322374620951</v>
+      </c>
+      <c r="F55">
+        <v>-0.03941990592575431</v>
+      </c>
+      <c r="G55">
+        <v>0.04326006989985463</v>
+      </c>
+      <c r="H55">
+        <v>0.00116099680787784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1417171459991955</v>
+        <v>-0.1290506481171747</v>
       </c>
       <c r="C56">
-        <v>0.09374951979718486</v>
+        <v>0.1259532715734488</v>
       </c>
       <c r="D56">
-        <v>-0.006830902361062802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01174905756664496</v>
+      </c>
+      <c r="E56">
+        <v>0.06318188644515801</v>
+      </c>
+      <c r="F56">
+        <v>-0.03027034029334945</v>
+      </c>
+      <c r="G56">
+        <v>0.04556726541244011</v>
+      </c>
+      <c r="H56">
+        <v>0.009383886900035731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0182763433392301</v>
+        <v>-0.02726967411198097</v>
       </c>
       <c r="C58">
-        <v>-0.007762146588970489</v>
+        <v>0.02685164874249464</v>
       </c>
       <c r="D58">
-        <v>0.2983571102414599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3535400391311886</v>
+      </c>
+      <c r="E58">
+        <v>0.1851555995904161</v>
+      </c>
+      <c r="F58">
+        <v>-0.1284815230368055</v>
+      </c>
+      <c r="G58">
+        <v>-0.2193031045847112</v>
+      </c>
+      <c r="H58">
+        <v>-0.4415857925861651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1379406643019004</v>
+        <v>-0.1794193682991841</v>
       </c>
       <c r="C59">
-        <v>-0.1942079771117745</v>
+        <v>-0.1689858500417422</v>
       </c>
       <c r="D59">
-        <v>0.02733530391651486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05157069542613124</v>
+      </c>
+      <c r="E59">
+        <v>0.01537810493097466</v>
+      </c>
+      <c r="F59">
+        <v>0.04116882481952556</v>
+      </c>
+      <c r="G59">
+        <v>0.001224286787178185</v>
+      </c>
+      <c r="H59">
+        <v>-0.02381482579522696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2451802729752971</v>
+        <v>-0.2270401212414858</v>
       </c>
       <c r="C60">
-        <v>0.05603182374503348</v>
+        <v>0.1039816607891997</v>
       </c>
       <c r="D60">
-        <v>0.2106897034166403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1210895818975394</v>
+      </c>
+      <c r="E60">
+        <v>-0.3593940404091133</v>
+      </c>
+      <c r="F60">
+        <v>-0.03327358137861127</v>
+      </c>
+      <c r="G60">
+        <v>0.04194133578556421</v>
+      </c>
+      <c r="H60">
+        <v>-0.1130059200245275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0464657449213022</v>
+        <v>-0.04002706644969956</v>
       </c>
       <c r="C61">
-        <v>0.05141230294324636</v>
+        <v>0.06351432609368425</v>
       </c>
       <c r="D61">
-        <v>0.09870572242927129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09173898771665405</v>
+      </c>
+      <c r="E61">
+        <v>0.004465614343908676</v>
+      </c>
+      <c r="F61">
+        <v>0.01829989332776749</v>
+      </c>
+      <c r="G61">
+        <v>0.002252576344326737</v>
+      </c>
+      <c r="H61">
+        <v>0.07872191978051378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0179344742635231</v>
+        <v>-0.01497581677973178</v>
       </c>
       <c r="C63">
-        <v>0.02303519062733419</v>
+        <v>0.03345614543962688</v>
       </c>
       <c r="D63">
-        <v>0.05936850128129395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06788235275179462</v>
+      </c>
+      <c r="E63">
+        <v>0.029885856777314</v>
+      </c>
+      <c r="F63">
+        <v>-0.01733513297123966</v>
+      </c>
+      <c r="G63">
+        <v>-0.006721089436878546</v>
+      </c>
+      <c r="H63">
+        <v>0.04565028332369211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0605808925123483</v>
+        <v>-0.05297960983813725</v>
       </c>
       <c r="C64">
-        <v>0.06596773679693535</v>
+        <v>0.0829996213574426</v>
       </c>
       <c r="D64">
-        <v>0.06012950882229196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05546003663278499</v>
+      </c>
+      <c r="E64">
+        <v>0.02708592371315662</v>
+      </c>
+      <c r="F64">
+        <v>0.01411661569784073</v>
+      </c>
+      <c r="G64">
+        <v>0.04884819744445355</v>
+      </c>
+      <c r="H64">
+        <v>0.05958146819537044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04818964862757535</v>
+        <v>-0.04557570216329867</v>
       </c>
       <c r="C65">
-        <v>0.007666782019694638</v>
+        <v>0.026803256308387</v>
       </c>
       <c r="D65">
-        <v>0.1122562539738582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1166117826081597</v>
+      </c>
+      <c r="E65">
+        <v>0.006486676977773856</v>
+      </c>
+      <c r="F65">
+        <v>-0.01868605368482111</v>
+      </c>
+      <c r="G65">
+        <v>-0.03093813485266448</v>
+      </c>
+      <c r="H65">
+        <v>-0.03182574088278389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04446469165490567</v>
+        <v>-0.039387197347409</v>
       </c>
       <c r="C66">
-        <v>0.05699715567158001</v>
+        <v>0.07720051082332462</v>
       </c>
       <c r="D66">
-        <v>0.1118427318441135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1311366170742708</v>
+      </c>
+      <c r="E66">
+        <v>0.01482392433754332</v>
+      </c>
+      <c r="F66">
+        <v>0.01260674459797368</v>
+      </c>
+      <c r="G66">
+        <v>-0.01895815948952935</v>
+      </c>
+      <c r="H66">
+        <v>0.04879324429054661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04099426583060545</v>
+        <v>-0.03769797363707863</v>
       </c>
       <c r="C67">
-        <v>0.01836437369380886</v>
+        <v>0.02661231447230686</v>
       </c>
       <c r="D67">
-        <v>0.02424130897894491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02077722124279241</v>
+      </c>
+      <c r="E67">
+        <v>0.01442928234964162</v>
+      </c>
+      <c r="F67">
+        <v>0.007585745431037654</v>
+      </c>
+      <c r="G67">
+        <v>-0.03690746011116586</v>
+      </c>
+      <c r="H67">
+        <v>0.03582399662452767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1570826435772037</v>
+        <v>-0.1966893767695854</v>
       </c>
       <c r="C68">
-        <v>-0.2379952873460593</v>
+        <v>-0.1987179084748878</v>
       </c>
       <c r="D68">
-        <v>-0.02411114240101532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009882359364861039</v>
+      </c>
+      <c r="E68">
+        <v>0.05401772525847984</v>
+      </c>
+      <c r="F68">
+        <v>-0.02999091228985428</v>
+      </c>
+      <c r="G68">
+        <v>-0.01311173411277508</v>
+      </c>
+      <c r="H68">
+        <v>-0.009177849420173245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08874213560332704</v>
+        <v>-0.07438136717488457</v>
       </c>
       <c r="C69">
-        <v>0.08363012242555194</v>
+        <v>0.09675699647177434</v>
       </c>
       <c r="D69">
-        <v>0.06547405605887578</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04646688682922166</v>
+      </c>
+      <c r="E69">
+        <v>0.02789379508036057</v>
+      </c>
+      <c r="F69">
+        <v>-0.007130812395479229</v>
+      </c>
+      <c r="G69">
+        <v>0.02527651386334185</v>
+      </c>
+      <c r="H69">
+        <v>0.04056358739338246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1377881800565821</v>
+        <v>-0.1839798684983476</v>
       </c>
       <c r="C71">
-        <v>-0.2418736566742533</v>
+        <v>-0.2099003508317699</v>
       </c>
       <c r="D71">
-        <v>0.01493297559653649</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03818981256647725</v>
+      </c>
+      <c r="E71">
+        <v>0.05493658478625141</v>
+      </c>
+      <c r="F71">
+        <v>-0.03353760372027471</v>
+      </c>
+      <c r="G71">
+        <v>0.01329669808849894</v>
+      </c>
+      <c r="H71">
+        <v>0.02631606959209896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09706859413398587</v>
+        <v>-0.09752620845313537</v>
       </c>
       <c r="C72">
-        <v>0.04037272257219137</v>
+        <v>0.07161566435233722</v>
       </c>
       <c r="D72">
-        <v>0.09002398204592629</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09411205329631543</v>
+      </c>
+      <c r="E72">
+        <v>-0.03485922598589727</v>
+      </c>
+      <c r="F72">
+        <v>-0.03860521431565767</v>
+      </c>
+      <c r="G72">
+        <v>0.02897897142444771</v>
+      </c>
+      <c r="H72">
+        <v>0.03101985296652982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2620002200516088</v>
+        <v>-0.2378885562086755</v>
       </c>
       <c r="C73">
-        <v>0.009012158907705473</v>
+        <v>0.08905781323327716</v>
       </c>
       <c r="D73">
-        <v>0.3332985562971263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1738802961152414</v>
+      </c>
+      <c r="E73">
+        <v>-0.6695684308380433</v>
+      </c>
+      <c r="F73">
+        <v>-0.02218821991777781</v>
+      </c>
+      <c r="G73">
+        <v>0.03484111974470375</v>
+      </c>
+      <c r="H73">
+        <v>-0.1504658640240362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1104665499407967</v>
+        <v>-0.09781399449922057</v>
       </c>
       <c r="C74">
-        <v>0.06964061909777018</v>
+        <v>0.0920921001817646</v>
       </c>
       <c r="D74">
-        <v>0.003391664532994974</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.006038811846751652</v>
+      </c>
+      <c r="E74">
+        <v>0.07755019253109034</v>
+      </c>
+      <c r="F74">
+        <v>-0.06304469753671874</v>
+      </c>
+      <c r="G74">
+        <v>0.05944505949097237</v>
+      </c>
+      <c r="H74">
+        <v>-0.02434973889839023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2519281335001026</v>
+        <v>-0.2275622965102165</v>
       </c>
       <c r="C75">
-        <v>0.1224931268955446</v>
+        <v>0.165417228448411</v>
       </c>
       <c r="D75">
-        <v>-0.0751983965049144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1001826038589115</v>
+      </c>
+      <c r="E75">
+        <v>0.1068706209168919</v>
+      </c>
+      <c r="F75">
+        <v>0.003600728056741968</v>
+      </c>
+      <c r="G75">
+        <v>0.05810451041726281</v>
+      </c>
+      <c r="H75">
+        <v>-0.08696662103445346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1428101559839247</v>
+        <v>-0.1266703732440793</v>
       </c>
       <c r="C76">
-        <v>0.08797391869889019</v>
+        <v>0.1145914167085229</v>
       </c>
       <c r="D76">
-        <v>-0.01166304823287443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01149499544935451</v>
+      </c>
+      <c r="E76">
+        <v>0.1175996273571124</v>
+      </c>
+      <c r="F76">
+        <v>-0.01700662889555487</v>
+      </c>
+      <c r="G76">
+        <v>0.0432525790921597</v>
+      </c>
+      <c r="H76">
+        <v>0.01587664498090291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06480005038471041</v>
+        <v>-0.06084699696284795</v>
       </c>
       <c r="C77">
-        <v>0.06293349208771878</v>
+        <v>0.07289549181138107</v>
       </c>
       <c r="D77">
-        <v>0.03553221031411399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1298073526015196</v>
+      </c>
+      <c r="E77">
+        <v>0.2187648587272263</v>
+      </c>
+      <c r="F77">
+        <v>0.2832657790146059</v>
+      </c>
+      <c r="G77">
+        <v>-0.2027194983848574</v>
+      </c>
+      <c r="H77">
+        <v>-0.296541586114941</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04146022756967903</v>
+        <v>-0.04287177763621301</v>
       </c>
       <c r="C78">
-        <v>0.05468527105666723</v>
+        <v>0.06685018941411823</v>
       </c>
       <c r="D78">
-        <v>0.1221400524861292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1332461447343634</v>
+      </c>
+      <c r="E78">
+        <v>0.0148817190980321</v>
+      </c>
+      <c r="F78">
+        <v>-0.01111632971348613</v>
+      </c>
+      <c r="G78">
+        <v>0.01217588401782956</v>
+      </c>
+      <c r="H78">
+        <v>0.02527669551812099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02499596641813988</v>
+        <v>-0.04555815167352089</v>
       </c>
       <c r="C79">
-        <v>0.08125978985991068</v>
+        <v>0.09260472880469905</v>
       </c>
       <c r="D79">
-        <v>-0.06237830208732809</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02593450841974688</v>
+      </c>
+      <c r="E79">
+        <v>0.2067421726664878</v>
+      </c>
+      <c r="F79">
+        <v>-0.1356857055013597</v>
+      </c>
+      <c r="G79">
+        <v>0.7445267859976628</v>
+      </c>
+      <c r="H79">
+        <v>-0.3329714625505495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03277048779911935</v>
+        <v>-0.02514035150380388</v>
       </c>
       <c r="C80">
-        <v>0.02792841186061625</v>
+        <v>0.04558597117694103</v>
       </c>
       <c r="D80">
-        <v>0.01950857872209472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02746302342718068</v>
+      </c>
+      <c r="E80">
+        <v>0.01552305447129568</v>
+      </c>
+      <c r="F80">
+        <v>0.01788232943941074</v>
+      </c>
+      <c r="G80">
+        <v>-0.05137886869750957</v>
+      </c>
+      <c r="H80">
+        <v>0.001468975546363547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1462879430465013</v>
+        <v>-0.1270014710758947</v>
       </c>
       <c r="C81">
-        <v>0.09481092837457429</v>
+        <v>0.1193111636223242</v>
       </c>
       <c r="D81">
-        <v>-0.06265284509277774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07421096349401325</v>
+      </c>
+      <c r="E81">
+        <v>0.1108200313880715</v>
+      </c>
+      <c r="F81">
+        <v>-0.02530455897609274</v>
+      </c>
+      <c r="G81">
+        <v>0.04599647068200627</v>
+      </c>
+      <c r="H81">
+        <v>-0.002956319077409763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3159110336867361</v>
+        <v>-0.2536083208556301</v>
       </c>
       <c r="C82">
-        <v>0.2558978443913212</v>
+        <v>0.2616828288469851</v>
       </c>
       <c r="D82">
-        <v>-0.2285492689957092</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2416766156014152</v>
+      </c>
+      <c r="E82">
+        <v>-0.02416559072306925</v>
+      </c>
+      <c r="F82">
+        <v>-0.04448402798235912</v>
+      </c>
+      <c r="G82">
+        <v>0.05175821460080627</v>
+      </c>
+      <c r="H82">
+        <v>0.4887987617869943</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02977460691965658</v>
+        <v>-0.02595075269716554</v>
       </c>
       <c r="C83">
-        <v>0.05242857754136385</v>
+        <v>0.04893168820246854</v>
       </c>
       <c r="D83">
-        <v>0.04701915214133483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05165897486266207</v>
+      </c>
+      <c r="E83">
+        <v>0.01752633071945437</v>
+      </c>
+      <c r="F83">
+        <v>0.02764298408631483</v>
+      </c>
+      <c r="G83">
+        <v>-0.01600054101505654</v>
+      </c>
+      <c r="H83">
+        <v>0.02468108301750317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005129651402097108</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004772163660690694</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0180177500471664</v>
+      </c>
+      <c r="E84">
+        <v>0.01866357003389045</v>
+      </c>
+      <c r="F84">
+        <v>-0.008415885609601022</v>
+      </c>
+      <c r="G84">
+        <v>-0.007996624300535162</v>
+      </c>
+      <c r="H84">
+        <v>-0.0006863408249879769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1792630181977086</v>
+        <v>-0.1560083609418332</v>
       </c>
       <c r="C85">
-        <v>0.09347343313565164</v>
+        <v>0.1336505619936748</v>
       </c>
       <c r="D85">
-        <v>-0.03600766001073139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06163023618642263</v>
+      </c>
+      <c r="E85">
+        <v>0.050756313641613</v>
+      </c>
+      <c r="F85">
+        <v>-0.03411335320679686</v>
+      </c>
+      <c r="G85">
+        <v>0.09859953715705026</v>
+      </c>
+      <c r="H85">
+        <v>-0.07643424160559859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01742002677726317</v>
+        <v>-0.01986463416559228</v>
       </c>
       <c r="C86">
-        <v>0.03400137905525486</v>
+        <v>0.02570548211719757</v>
       </c>
       <c r="D86">
-        <v>0.1281318586684096</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1196438024096785</v>
+      </c>
+      <c r="E86">
+        <v>0.003109234632817084</v>
+      </c>
+      <c r="F86">
+        <v>0.01857333093979117</v>
+      </c>
+      <c r="G86">
+        <v>-0.002854620778709424</v>
+      </c>
+      <c r="H86">
+        <v>0.07622873829651212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03113975232611584</v>
+        <v>-0.03634176442638145</v>
       </c>
       <c r="C87">
-        <v>0.006312180004592886</v>
+        <v>0.02578837995451087</v>
       </c>
       <c r="D87">
-        <v>0.09549322507900655</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.136926161234644</v>
+      </c>
+      <c r="E87">
+        <v>0.07824272299747378</v>
+      </c>
+      <c r="F87">
+        <v>0.008246987168999036</v>
+      </c>
+      <c r="G87">
+        <v>-0.02165382223516404</v>
+      </c>
+      <c r="H87">
+        <v>0.02425814813671006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08010601031207955</v>
+        <v>-0.07157469008058776</v>
       </c>
       <c r="C88">
-        <v>0.0331663328195376</v>
+        <v>0.0527135620212637</v>
       </c>
       <c r="D88">
-        <v>0.04440977892351939</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02769665463419377</v>
+      </c>
+      <c r="E88">
+        <v>0.007986572589400144</v>
+      </c>
+      <c r="F88">
+        <v>-0.01890717951114815</v>
+      </c>
+      <c r="G88">
+        <v>0.001932299672308896</v>
+      </c>
+      <c r="H88">
+        <v>0.03107275561026874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2047619598497462</v>
+        <v>-0.2823331361401555</v>
       </c>
       <c r="C89">
-        <v>-0.3944586928423946</v>
+        <v>-0.353742528215073</v>
       </c>
       <c r="D89">
-        <v>-0.03140748862708575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004169735581091751</v>
+      </c>
+      <c r="E89">
+        <v>0.04302120215686168</v>
+      </c>
+      <c r="F89">
+        <v>0.04341056075337738</v>
+      </c>
+      <c r="G89">
+        <v>0.04241112095101339</v>
+      </c>
+      <c r="H89">
+        <v>0.08089407140307774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.189701119347708</v>
+        <v>-0.2392927134294434</v>
       </c>
       <c r="C90">
-        <v>-0.3012143135243615</v>
+        <v>-0.251064780714148</v>
       </c>
       <c r="D90">
-        <v>-0.01377743862646555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01926579898211081</v>
+      </c>
+      <c r="E90">
+        <v>0.04955792571171858</v>
+      </c>
+      <c r="F90">
+        <v>-0.005987131863886737</v>
+      </c>
+      <c r="G90">
+        <v>-0.05236741453236759</v>
+      </c>
+      <c r="H90">
+        <v>0.03797516523059608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1888013267573062</v>
+        <v>-0.1586391722009113</v>
       </c>
       <c r="C91">
-        <v>0.139904102585195</v>
+        <v>0.1578672812551411</v>
       </c>
       <c r="D91">
-        <v>-0.08258446567928553</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08615698609947986</v>
+      </c>
+      <c r="E91">
+        <v>0.1070953146768848</v>
+      </c>
+      <c r="F91">
+        <v>-0.02187893280936763</v>
+      </c>
+      <c r="G91">
+        <v>0.09657732979778144</v>
+      </c>
+      <c r="H91">
+        <v>-0.0724624926293289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1675548715172934</v>
+        <v>-0.2242994791715476</v>
       </c>
       <c r="C92">
-        <v>-0.298374147723978</v>
+        <v>-0.2707708952428907</v>
       </c>
       <c r="D92">
-        <v>0.008908131801577788</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03412852783937161</v>
+      </c>
+      <c r="E92">
+        <v>0.08855681289861311</v>
+      </c>
+      <c r="F92">
+        <v>0.01018529945606549</v>
+      </c>
+      <c r="G92">
+        <v>-0.01865263892409331</v>
+      </c>
+      <c r="H92">
+        <v>0.03840805704115376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2173130263514003</v>
+        <v>-0.2638438425012024</v>
       </c>
       <c r="C93">
-        <v>-0.3222085004588439</v>
+        <v>-0.2647116593541424</v>
       </c>
       <c r="D93">
-        <v>1.376811095336116e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0003411206510668547</v>
+      </c>
+      <c r="E93">
+        <v>0.01222709897266999</v>
+      </c>
+      <c r="F93">
+        <v>-0.01991992590654373</v>
+      </c>
+      <c r="G93">
+        <v>0.005823600608061141</v>
+      </c>
+      <c r="H93">
+        <v>-0.005394246019033138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4010577892414552</v>
+        <v>-0.3390374596037358</v>
       </c>
       <c r="C94">
-        <v>0.2043168498843541</v>
+        <v>0.2619240541153024</v>
       </c>
       <c r="D94">
-        <v>-0.4547299662458003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4302380993336076</v>
+      </c>
+      <c r="E94">
+        <v>0.0836078117173194</v>
+      </c>
+      <c r="F94">
+        <v>0.02034255696427857</v>
+      </c>
+      <c r="G94">
+        <v>-0.46619481407167</v>
+      </c>
+      <c r="H94">
+        <v>-0.2438916107371265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07727869617043374</v>
+        <v>-0.06764815182937325</v>
       </c>
       <c r="C95">
-        <v>0.06005463745080591</v>
+        <v>0.06708836759715006</v>
       </c>
       <c r="D95">
-        <v>0.1077984824486159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08157113355540295</v>
+      </c>
+      <c r="E95">
+        <v>-0.009988204554666688</v>
+      </c>
+      <c r="F95">
+        <v>0.9063156727866928</v>
+      </c>
+      <c r="G95">
+        <v>0.1550101564887541</v>
+      </c>
+      <c r="H95">
+        <v>-0.001827396740422263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1687168835851163</v>
+        <v>-0.1599945426584773</v>
       </c>
       <c r="C98">
-        <v>0.01729731531973855</v>
+        <v>0.06707120501310711</v>
       </c>
       <c r="D98">
-        <v>0.1839827012803174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1270615555726473</v>
+      </c>
+      <c r="E98">
+        <v>-0.315140664483359</v>
+      </c>
+      <c r="F98">
+        <v>-0.0528482626837662</v>
+      </c>
+      <c r="G98">
+        <v>0.05366934739793341</v>
+      </c>
+      <c r="H98">
+        <v>-0.04347727254477578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004962379539135874</v>
+        <v>-0.005673899370008131</v>
       </c>
       <c r="C101">
-        <v>0.01680610302953381</v>
+        <v>0.02263678922568635</v>
       </c>
       <c r="D101">
-        <v>0.06825583863646766</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08816418090934736</v>
+      </c>
+      <c r="E101">
+        <v>0.03518897932185678</v>
+      </c>
+      <c r="F101">
+        <v>-0.01196282517795686</v>
+      </c>
+      <c r="G101">
+        <v>-0.002225099294595037</v>
+      </c>
+      <c r="H101">
+        <v>0.09904051573692209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.131229567813672</v>
+        <v>-0.106633251377925</v>
       </c>
       <c r="C102">
-        <v>0.1101372868375672</v>
+        <v>0.1191829803951579</v>
       </c>
       <c r="D102">
-        <v>-0.04767632895187166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06545004968897249</v>
+      </c>
+      <c r="E102">
+        <v>0.02847585165532602</v>
+      </c>
+      <c r="F102">
+        <v>0.02425469015111999</v>
+      </c>
+      <c r="G102">
+        <v>0.03208560329205401</v>
+      </c>
+      <c r="H102">
+        <v>0.04895650273147609</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
